--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261358.5607031641</v>
+        <v>253372.4249402085</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129927</v>
+        <v>3650026.315129928</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6941460.733645762</v>
+        <v>6885202.068682654</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -710,16 +712,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>314.4309149809111</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>352.8820286786051</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>109.142675762685</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -899,22 +901,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>40.23755513055364</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>34.75529100421647</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>82.77088118596784</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>156.9601354960123</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>250.3929229431643</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>35.16791248334784</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>185.1447535886765</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>191.7079826231982</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1768,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>161.0723471410682</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>70.87562473588721</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>174.8095987446695</v>
       </c>
     </row>
     <row r="18">
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>185.5573750678088</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2567,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -2606,7 +2608,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2959,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3029,7 +3031,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3080,7 +3082,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3278,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3755,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>254.093120106908</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,10 +3985,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>221.9916499349191</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>75.74046452697239</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719915</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.512437976118</v>
+        <v>1608.123206251356</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.369965159541</v>
+        <v>1608.123206251356</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148856</v>
@@ -4358,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V2" t="n">
-        <v>1789.512437976118</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W2" t="n">
-        <v>1789.512437976118</v>
+        <v>1608.123206251356</v>
       </c>
       <c r="X2" t="n">
-        <v>1789.512437976118</v>
+        <v>1608.123206251356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1789.512437976118</v>
+        <v>1608.123206251356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L3" t="n">
-        <v>1175.902039375362</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M3" t="n">
-        <v>1175.902039375362</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N3" t="n">
-        <v>1175.902039375362</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O3" t="n">
-        <v>1175.902039375362</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6703941018225</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
         <v>281.9633400635787</v>
@@ -4483,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4492,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>532.1876844265726</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C5" t="n">
-        <v>94.04521160999587</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D5" t="n">
-        <v>94.04521160999587</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>94.04521160999587</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>94.04521160999587</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>94.04521160999587</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4571,22 +4573,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1785.915842032516</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.773378611827</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y5" t="n">
-        <v>958.4872549114804</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462408</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294657</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4553496309884</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E7" t="n">
-        <v>254.6973458817257</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F7" t="n">
-        <v>77.99029184348186</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652279</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>1047.536173530043</v>
       </c>
       <c r="E8" t="n">
-        <v>53.81800590148855</v>
+        <v>613.7614286883381</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>613.7614286883381</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>212.363597311602</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4838,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1483.445958355599</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4884,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>595.8703048453069</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C11" t="n">
-        <v>595.8703048453069</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D11" t="n">
-        <v>595.8703048453069</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E11" t="n">
-        <v>595.8703048453069</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F11" t="n">
-        <v>595.8703048453069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G11" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5069,22 +5071,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V11" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W11" t="n">
-        <v>1423.298891966343</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="X11" t="n">
-        <v>1004.156428545654</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y11" t="n">
-        <v>595.8703048453069</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5121,19 +5123,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L12" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M12" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N12" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O12" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5203,7 +5205,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
@@ -5224,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U13" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V13" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>931.3608944498332</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="C14" t="n">
-        <v>931.3608944498332</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="D14" t="n">
-        <v>931.3608944498332</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="E14" t="n">
-        <v>931.3608944498332</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="F14" t="n">
-        <v>744.3459918350084</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="G14" t="n">
-        <v>342.9481604582723</v>
+        <v>247.4624327936079</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>1744.502472739146</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W14" t="n">
-        <v>1339.64701815018</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X14" t="n">
-        <v>1339.64701815018</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y14" t="n">
-        <v>931.3608944498332</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>900.7186013536161</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1568898368411</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D16" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E16" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5458,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T16" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U16" t="n">
-        <v>2124.330557968361</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.375049838791</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W16" t="n">
-        <v>1565.348645425083</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.956890758495</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y16" t="n">
-        <v>1092.537220072603</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C17" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D17" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E17" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F17" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G17" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N17" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U17" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V17" t="n">
-        <v>2048.221573682271</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W17" t="n">
-        <v>1643.366119093304</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X17" t="n">
-        <v>1224.223655672615</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y17" t="n">
-        <v>815.9375319722682</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5588,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
         <v>79.46488968908616</v>
@@ -5595,22 +5597,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M18" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N18" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q18" t="n">
         <v>1599.468199913098</v>
@@ -5662,13 +5664,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5695,10 +5697,10 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
         <v>2405.942210967199</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>931.3608944498341</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5971,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1039.550377927472</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2114.610344180331</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>3271.658179390882</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>4397.38916282733</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436396</v>
@@ -6224,34 +6226,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
         <v>4809.322912595856</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,25 +6469,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
         <v>5029.390139722817</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6704,28 +6706,28 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,28 +6943,28 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>3346.878440713112</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>3174.316729196337</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>3008.43873639786</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>2838.680732648597</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>5094.802844496296</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>4848.923398074751</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>4570.490397327857</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>4283.534889198288</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>4011.508484784579</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>3766.116730117991</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>3538.6970594321</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7165,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7412,49 +7414,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1612.575493976557</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="M41" t="n">
-        <v>2769.623329187108</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N41" t="n">
-        <v>3895.354312623555</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O41" t="n">
-        <v>3895.354312623555</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7603,16 +7605,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1618.398249477141</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1180.255776660564</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>744.3459918350084</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>744.3459918350084</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>744.3459918350084</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>342.9481604582723</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148855</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1293.567921177998</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1293.567921177998</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1293.567921177998</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2445.826836598176</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2026.684373177487</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1618.398249477141</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>397.8892067392439</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516122</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887848</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903075</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410447</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028009</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862856</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434796</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013251</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136787</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056491</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705994</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8453,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9401,25 +9403,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>507.105909296742</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>288.735183296506</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10115,13 +10117,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10352,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>315.3936483072348</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -11060,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>815.1067363807633</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11461,7 +11463,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -22547,22 +22549,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,16 +22600,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>44.55986558460063</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>47.92487136447193</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -22702,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>55.07653710780755</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22787,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>246.0012978806623</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,22 +22837,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>366.0516090388605</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>346.6661162073199</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>129.2787175152036</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>146.9909301198045</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>365.6389875597292</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23504,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>238.4440017062078</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>94.53087038801772</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.14686572942432</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1609500441715</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>229.3936637186736</v>
       </c>
     </row>
     <row r="18">
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>238.0313802270755</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>15.21302026266335</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>178.8152501081579</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444082</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473811.0524319412</v>
+        <v>473811.0524319413</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473811.0524319411</v>
+        <v>473811.0524319413</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473811.0524319412</v>
+        <v>473811.0524319413</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473811.0524319412</v>
+        <v>473811.0524319413</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738135.4849448455</v>
+        <v>473811.0524319413</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738135.4849448455</v>
+        <v>738135.4849448458</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738135.4849448458</v>
+        <v>738135.4849448455</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473811.0524319413</v>
+        <v>738135.4849448455</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>135276.4913831621</v>
       </c>
       <c r="C2" t="n">
+        <v>135276.4913831621</v>
+      </c>
+      <c r="D2" t="n">
         <v>135276.491383162</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>135276.4913831621</v>
       </c>
-      <c r="E2" t="n">
-        <v>135276.491383162</v>
-      </c>
       <c r="F2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="G2" t="n">
         <v>135276.4913831621</v>
       </c>
       <c r="H2" t="n">
-        <v>210743.033654941</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="I2" t="n">
         <v>210743.0336549409</v>
@@ -26338,22 +26340,22 @@
         <v>210743.033654941</v>
       </c>
       <c r="K2" t="n">
+        <v>210743.033654941</v>
+      </c>
+      <c r="L2" t="n">
         <v>210743.0336549409</v>
-      </c>
-      <c r="L2" t="n">
-        <v>210743.033654941</v>
       </c>
       <c r="M2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="N2" t="n">
+        <v>210743.033654941</v>
+      </c>
+      <c r="O2" t="n">
         <v>210743.0336549409</v>
       </c>
-      <c r="O2" t="n">
-        <v>210743.033654941</v>
-      </c>
       <c r="P2" t="n">
-        <v>135276.4913831621</v>
+        <v>210743.0336549409</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>162410.0000642068</v>
       </c>
       <c r="J3" t="n">
         <v>174651.3487177062</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="C4" t="n">
         <v>17770.48083418235</v>
@@ -26424,7 +26426,7 @@
         <v>17770.48083418235</v>
       </c>
       <c r="E4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="F4" t="n">
         <v>17770.48083418235</v>
@@ -26433,7 +26435,7 @@
         <v>17770.48083418235</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26457,7 +26459,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>17770.48083418234</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-180406.2125968229</v>
       </c>
       <c r="C6" t="n">
-        <v>43293.48598722198</v>
+        <v>43293.48598722203</v>
       </c>
       <c r="D6" t="n">
-        <v>43293.48598722201</v>
+        <v>43293.48598722197</v>
       </c>
       <c r="E6" t="n">
-        <v>76921.08598722197</v>
+        <v>76921.08598722203</v>
       </c>
       <c r="F6" t="n">
-        <v>76921.08598722197</v>
+        <v>76921.085987222</v>
       </c>
       <c r="G6" t="n">
+        <v>76921.08598722203</v>
+      </c>
+      <c r="H6" t="n">
         <v>76921.085987222</v>
       </c>
-      <c r="H6" t="n">
-        <v>-59443.86147912974</v>
-      </c>
       <c r="I6" t="n">
-        <v>105340.7162989457</v>
+        <v>-57069.28376526109</v>
       </c>
       <c r="J6" t="n">
-        <v>-69310.6324187604</v>
+        <v>-69310.63241876039</v>
       </c>
       <c r="K6" t="n">
-        <v>105340.7162989457</v>
+        <v>105340.7162989458</v>
       </c>
       <c r="L6" t="n">
-        <v>105340.7162989457</v>
+        <v>105340.7162989458</v>
       </c>
       <c r="M6" t="n">
-        <v>105340.7162989457</v>
+        <v>105340.7162989458</v>
       </c>
       <c r="N6" t="n">
-        <v>105340.7162989457</v>
+        <v>105340.7162989458</v>
       </c>
       <c r="O6" t="n">
         <v>105340.7162989457</v>
       </c>
       <c r="P6" t="n">
-        <v>76921.085987222</v>
+        <v>105340.7162989458</v>
       </c>
     </row>
   </sheetData>
@@ -26790,22 +26792,22 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="J4" t="n">
         <v>667.5152066078571</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34939,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,10 +35573,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36121,28 +36123,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,7 +36293,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>507.105909296742</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36370,16 +36372,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>288.735183296506</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36835,13 +36837,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37072,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>315.3936483072348</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>815.1067363807633</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253372.4249402085</v>
+        <v>250574.5785792456</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>18249983.41937636</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129928</v>
+        <v>3650026.315129926</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6885202.068682654</v>
+        <v>6885202.068682653</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>32.19246757545231</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>352.8820286786051</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8834167598887</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -873,10 +873,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>171.4132363244036</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>34.75529100421647</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>272.5018050100015</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>156.9601354960123</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.27738917262761</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>35.16791248334784</v>
+        <v>212.4828355506837</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>191.7079826231982</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>370.4697818781668</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12.65412996463665</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>174.8095987446695</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>185.5573750678088</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>35.16791248334776</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2560,7 +2560,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.383853062969</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2812,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3085,7 +3085,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.383853062969</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3957,10 +3957,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>254.093120106908</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.74046452697239</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1608.123206251356</v>
+        <v>85.91886054423696</v>
       </c>
       <c r="C2" t="n">
-        <v>1608.123206251356</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="D2" t="n">
-        <v>1172.213421425801</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932282</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.569699866109</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W2" t="n">
-        <v>1608.123206251356</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X2" t="n">
-        <v>1608.123206251356</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y2" t="n">
-        <v>1608.123206251356</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705998</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705998</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4494,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4521,19 +4521,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.512437976118</v>
+        <v>917.0738856181116</v>
       </c>
       <c r="C5" t="n">
-        <v>1351.369965159541</v>
+        <v>917.0738856181116</v>
       </c>
       <c r="D5" t="n">
-        <v>915.4601803339856</v>
+        <v>917.0738856181116</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862857</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W5" t="n">
-        <v>2634.954471881715</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="X5" t="n">
-        <v>2215.812008461025</v>
+        <v>1325.360009318458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.812008461025</v>
+        <v>917.0738856181116</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862857</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1483.445958355599</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="C8" t="n">
-        <v>1483.445958355599</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>1047.536173530043</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>613.7614286883381</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>613.7614286883381</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>212.363597311602</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148856</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2541.684317087359</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2541.684317087359</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365255</v>
+        <v>2179.067367021185</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2179.067367021185</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355599</v>
+        <v>2179.067367021185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.445958355599</v>
+        <v>2179.067367021185</v>
       </c>
     </row>
     <row r="9">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
         <v>53.40121652862857</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
         <v>1293.567921177998</v>
@@ -5068,25 +5068,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W11" t="n">
-        <v>2634.537682508855</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="X11" t="n">
-        <v>2215.395219088166</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y11" t="n">
-        <v>2215.395219088166</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D13" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E13" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F13" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G13" t="n">
         <v>53.40121652862857</v>
@@ -5205,7 +5205,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
@@ -5226,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T13" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U13" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V13" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X13" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>648.8602641703441</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C14" t="n">
-        <v>648.8602641703441</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D14" t="n">
-        <v>648.8602641703441</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E14" t="n">
-        <v>648.8602641703441</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F14" t="n">
-        <v>648.8602641703441</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G14" t="n">
-        <v>247.4624327936079</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I14" t="n">
         <v>53.40121652862857</v>
@@ -5281,16 +5281,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
@@ -5305,25 +5305,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V14" t="n">
-        <v>2307.443876365255</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W14" t="n">
-        <v>1902.588421776288</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="X14" t="n">
-        <v>1483.445958355599</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="Y14" t="n">
-        <v>1075.159834655252</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="15">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
         <v>53.40121652862857</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>743.9292024621484</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C17" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="D17" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E17" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F17" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G17" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
         <v>53.40121652862857</v>
@@ -5515,19 +5515,19 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M17" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N17" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
@@ -5545,22 +5545,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U17" t="n">
-        <v>2107.119422805321</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V17" t="n">
-        <v>1744.502472739147</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W17" t="n">
-        <v>1339.647018150181</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X17" t="n">
-        <v>920.5045547294914</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y17" t="n">
-        <v>743.9292024621484</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
         <v>1599.468199913098</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H19" t="n">
         <v>53.40121652862857</v>
@@ -5700,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>931.3608944498341</v>
+        <v>1824.618792525831</v>
       </c>
       <c r="C20" t="n">
-        <v>931.3608944498341</v>
+        <v>1386.476319709255</v>
       </c>
       <c r="D20" t="n">
-        <v>931.3608944498341</v>
+        <v>950.5665348836992</v>
       </c>
       <c r="E20" t="n">
-        <v>931.3608944498341</v>
+        <v>516.7917900419943</v>
       </c>
       <c r="F20" t="n">
-        <v>743.9292024621484</v>
+        <v>88.92436045120206</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H20" t="n">
         <v>53.40121652862857</v>
@@ -5755,22 +5755,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
+        <v>488.6559039815464</v>
+      </c>
+      <c r="L20" t="n">
+        <v>488.6559039815464</v>
+      </c>
+      <c r="M20" t="n">
         <v>1149.495958523325</v>
       </c>
-      <c r="L20" t="n">
-        <v>1179.226652594814</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1179.226652594814</v>
-      </c>
       <c r="N20" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q20" t="n">
         <v>2500.906761678372</v>
@@ -5779,25 +5779,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U20" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V20" t="n">
-        <v>1744.502472739147</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W20" t="n">
-        <v>1339.647018150181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X20" t="n">
-        <v>1339.647018150181</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y20" t="n">
-        <v>931.3608944498341</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="21">
@@ -5916,7 +5916,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
         <v>1292.433105213328</v>
@@ -5971,46 +5971,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D26" t="n">
         <v>1654.847790009657</v>
@@ -6214,10 +6214,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436396</v>
@@ -6226,52 +6226,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>388.1086717343205</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6414,22 +6414,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2594.704009018975</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6475,31 +6475,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
@@ -6508,7 +6508,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6691,7 +6691,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6700,37 +6700,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
         <v>4550.100609912873</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6925,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6943,25 +6943,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>3800.424250186841</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3346.878440713112</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>3174.316729196337</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>3008.43873639786</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648597</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5094.802844496296</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>4848.923398074751</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>4570.490397327857</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>4283.534889198288</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>4011.508484784579</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>3766.116730117991</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>3538.6970594321</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7417,46 +7417,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2178.821488698831</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2178.821488698831</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7657,43 +7657,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P14" t="n">
         <v>667.5152066078572</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>667.5152066078572</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9403,25 +9403,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L20" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>288.735183296506</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>815.1067363807633</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11080,10 +11080,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,16 +11305,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>401.5685805129586</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>47.92487136447193</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.33579611060378</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22761,10 +22761,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>258.0237610688842</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>366.0516090388605</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3.146865729424178</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23032,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>129.2787175152036</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>173.5891656830642</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>365.6389875597292</v>
+        <v>188.3240644923933</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>94.53087038801772</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>30.33711816491018</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>421.1069181237743</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>229.3936637186736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>238.0313802270755</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>362.215940579621</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24654,7 +24654,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>15.21302026266335</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738135.4849448458</v>
+        <v>738135.4849448455</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738135.4849448455</v>
+        <v>738135.4849448458</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>135276.4913831621</v>
       </c>
       <c r="C2" t="n">
+        <v>135276.491383162</v>
+      </c>
+      <c r="D2" t="n">
         <v>135276.4913831621</v>
-      </c>
-      <c r="D2" t="n">
-        <v>135276.491383162</v>
       </c>
       <c r="E2" t="n">
         <v>135276.4913831621</v>
@@ -26343,19 +26343,19 @@
         <v>210743.033654941</v>
       </c>
       <c r="L2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="M2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="N2" t="n">
+        <v>210743.0336549409</v>
+      </c>
+      <c r="O2" t="n">
         <v>210743.033654941</v>
       </c>
-      <c r="O2" t="n">
-        <v>210743.0336549409</v>
-      </c>
       <c r="P2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>162410.0000642068</v>
+        <v>162410.0000642069</v>
       </c>
       <c r="J3" t="n">
         <v>174651.3487177062</v>
@@ -26490,28 +26490,28 @@
         <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180406.2125968229</v>
+        <v>-180901.1028254041</v>
       </c>
       <c r="C6" t="n">
-        <v>43293.48598722203</v>
+        <v>42798.59575864071</v>
       </c>
       <c r="D6" t="n">
-        <v>43293.48598722197</v>
+        <v>42798.59575864077</v>
       </c>
       <c r="E6" t="n">
-        <v>76921.08598722203</v>
+        <v>76426.19575864075</v>
       </c>
       <c r="F6" t="n">
-        <v>76921.085987222</v>
+        <v>76426.19575864078</v>
       </c>
       <c r="G6" t="n">
-        <v>76921.08598722203</v>
+        <v>76426.19575864075</v>
       </c>
       <c r="H6" t="n">
-        <v>76921.085987222</v>
+        <v>76426.19575864078</v>
       </c>
       <c r="I6" t="n">
-        <v>-57069.28376526109</v>
+        <v>-57092.50810464381</v>
       </c>
       <c r="J6" t="n">
-        <v>-69310.63241876039</v>
+        <v>-69333.85675814304</v>
       </c>
       <c r="K6" t="n">
-        <v>105340.7162989458</v>
+        <v>105317.4919595631</v>
       </c>
       <c r="L6" t="n">
-        <v>105340.7162989458</v>
+        <v>105317.4919595631</v>
       </c>
       <c r="M6" t="n">
-        <v>105340.7162989458</v>
+        <v>105317.4919595631</v>
       </c>
       <c r="N6" t="n">
-        <v>105340.7162989458</v>
+        <v>105317.4919595631</v>
       </c>
       <c r="O6" t="n">
-        <v>105340.7162989457</v>
+        <v>105317.4919595631</v>
       </c>
       <c r="P6" t="n">
-        <v>105340.7162989458</v>
+        <v>105317.4919595631</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="J4" t="n">
         <v>667.5152066078571</v>
@@ -34701,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34777,10 +34777,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -35014,10 +35014,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35573,10 +35573,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35649,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35658,10 +35658,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P14" t="n">
         <v>667.5152066078572</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>667.5152066078572</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36123,25 +36123,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L20" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36284,10 +36284,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>288.735183296506</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37311,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>815.1067363807633</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37800,10 +37800,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38025,16 +38025,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
